--- a/examples/models/BooleanTcell_biorecipe.xlsx
+++ b/examples/models/BooleanTcell_biorecipe.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10512"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Pitt_Research\DySE-framework\Framework\GUI\model\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://pitt-my.sharepoint.com/personal/gaz11_pitt_edu/Documents/Personal/Github/BioRECIPE/examples/models/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4A0F503-D8DA-4CBF-BF9D-A1A086CFA80A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -976,44 +976,44 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AR63"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AA19" zoomScale="97" zoomScaleNormal="97" workbookViewId="0">
-      <selection activeCell="AQ9" sqref="AQ9"/>
+    <sheetView tabSelected="1" zoomScale="97" zoomScaleNormal="97" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="35.453125" customWidth="1"/>
-    <col min="3" max="3" width="15.453125" customWidth="1"/>
-    <col min="4" max="4" width="21.36328125" style="11" customWidth="1"/>
-    <col min="5" max="5" width="22.453125" customWidth="1"/>
-    <col min="6" max="6" width="18.6328125" customWidth="1"/>
+    <col min="2" max="2" width="35.5" customWidth="1"/>
+    <col min="3" max="3" width="15.5" customWidth="1"/>
+    <col min="4" max="4" width="21.33203125" style="11" customWidth="1"/>
+    <col min="5" max="5" width="22.5" customWidth="1"/>
+    <col min="6" max="6" width="18.6640625" customWidth="1"/>
     <col min="7" max="7" width="46" customWidth="1"/>
-    <col min="8" max="9" width="22.36328125" customWidth="1"/>
-    <col min="11" max="13" width="22.36328125" customWidth="1"/>
-    <col min="14" max="14" width="24.81640625" customWidth="1"/>
-    <col min="15" max="15" width="28.36328125" customWidth="1"/>
-    <col min="16" max="16" width="26.36328125" customWidth="1"/>
+    <col min="8" max="9" width="22.33203125" customWidth="1"/>
+    <col min="11" max="13" width="22.33203125" customWidth="1"/>
+    <col min="14" max="14" width="24.83203125" customWidth="1"/>
+    <col min="15" max="15" width="28.33203125" customWidth="1"/>
+    <col min="16" max="16" width="26.33203125" customWidth="1"/>
     <col min="17" max="17" width="17" customWidth="1"/>
-    <col min="18" max="18" width="24.81640625" customWidth="1"/>
-    <col min="19" max="19" width="31.1796875" customWidth="1"/>
-    <col min="20" max="20" width="22.36328125" customWidth="1"/>
-    <col min="21" max="21" width="23.36328125" customWidth="1"/>
-    <col min="22" max="23" width="17.1796875" customWidth="1"/>
-    <col min="24" max="25" width="23.36328125" customWidth="1"/>
-    <col min="26" max="26" width="34.81640625" customWidth="1"/>
+    <col min="18" max="18" width="24.83203125" customWidth="1"/>
+    <col min="19" max="19" width="31.1640625" customWidth="1"/>
+    <col min="20" max="20" width="22.33203125" customWidth="1"/>
+    <col min="21" max="21" width="23.33203125" customWidth="1"/>
+    <col min="22" max="23" width="17.1640625" customWidth="1"/>
+    <col min="24" max="25" width="23.33203125" customWidth="1"/>
+    <col min="26" max="26" width="34.83203125" customWidth="1"/>
     <col min="27" max="27" width="32" customWidth="1"/>
-    <col min="28" max="28" width="12.81640625" customWidth="1"/>
-    <col min="29" max="29" width="20.81640625" customWidth="1"/>
-    <col min="30" max="30" width="14.453125" customWidth="1"/>
-    <col min="31" max="33" width="24.1796875" customWidth="1"/>
-    <col min="37" max="37" width="21.1796875" customWidth="1"/>
-    <col min="40" max="40" width="23.6328125" customWidth="1"/>
-    <col min="41" max="41" width="23.1796875" customWidth="1"/>
-    <col min="42" max="42" width="27.453125" customWidth="1"/>
-    <col min="43" max="43" width="20.81640625" customWidth="1"/>
+    <col min="28" max="28" width="12.83203125" customWidth="1"/>
+    <col min="29" max="29" width="20.83203125" customWidth="1"/>
+    <col min="30" max="30" width="14.5" customWidth="1"/>
+    <col min="31" max="33" width="24.1640625" customWidth="1"/>
+    <col min="37" max="37" width="21.1640625" customWidth="1"/>
+    <col min="40" max="40" width="23.6640625" customWidth="1"/>
+    <col min="41" max="41" width="23.1640625" customWidth="1"/>
+    <col min="42" max="42" width="27.5" customWidth="1"/>
+    <col min="43" max="43" width="20.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:42" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:42" ht="16" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>168</v>
       </c>
@@ -1141,7 +1141,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="2" spans="1:42" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1181,7 +1181,7 @@
       </c>
       <c r="AP2" s="6"/>
     </row>
-    <row r="3" spans="1:42" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>2</v>
       </c>
@@ -1215,7 +1215,7 @@
       </c>
       <c r="AP3" s="6"/>
     </row>
-    <row r="4" spans="1:42" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>3</v>
       </c>
@@ -1254,7 +1254,7 @@
       </c>
       <c r="AP4" s="6"/>
     </row>
-    <row r="5" spans="1:42" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>4</v>
       </c>
@@ -1292,7 +1292,7 @@
       </c>
       <c r="AP5" s="6"/>
     </row>
-    <row r="6" spans="1:42" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>5</v>
       </c>
@@ -1326,7 +1326,7 @@
       </c>
       <c r="AP6" s="6"/>
     </row>
-    <row r="7" spans="1:42" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>6</v>
       </c>
@@ -1360,7 +1360,7 @@
       </c>
       <c r="AP7" s="6"/>
     </row>
-    <row r="8" spans="1:42" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>7</v>
       </c>
@@ -1397,7 +1397,7 @@
       </c>
       <c r="AP8" s="6"/>
     </row>
-    <row r="9" spans="1:42" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>8</v>
       </c>
@@ -1431,7 +1431,7 @@
       </c>
       <c r="AP9" s="6"/>
     </row>
-    <row r="10" spans="1:42" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>9</v>
       </c>
@@ -1468,7 +1468,7 @@
       </c>
       <c r="AP10" s="6"/>
     </row>
-    <row r="11" spans="1:42" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>10</v>
       </c>
@@ -1505,7 +1505,7 @@
       </c>
       <c r="AP11" s="6"/>
     </row>
-    <row r="12" spans="1:42" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>11</v>
       </c>
@@ -1538,7 +1538,7 @@
       </c>
       <c r="AP12" s="6"/>
     </row>
-    <row r="13" spans="1:42" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>12</v>
       </c>
@@ -1571,7 +1571,7 @@
       </c>
       <c r="AP13" s="6"/>
     </row>
-    <row r="14" spans="1:42" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>13</v>
       </c>
@@ -1601,7 +1601,7 @@
       </c>
       <c r="AP14" s="6"/>
     </row>
-    <row r="15" spans="1:42" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>14</v>
       </c>
@@ -1638,7 +1638,7 @@
       </c>
       <c r="AP15" s="6"/>
     </row>
-    <row r="16" spans="1:42" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>15</v>
       </c>
@@ -1678,7 +1678,7 @@
       </c>
       <c r="AP16" s="6"/>
     </row>
-    <row r="17" spans="1:42" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>16</v>
       </c>
@@ -1715,7 +1715,7 @@
       </c>
       <c r="AP17" s="6"/>
     </row>
-    <row r="18" spans="1:42" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>17</v>
       </c>
@@ -1754,7 +1754,7 @@
       </c>
       <c r="AP18" s="6"/>
     </row>
-    <row r="19" spans="1:42" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>18</v>
       </c>
@@ -1791,7 +1791,7 @@
       </c>
       <c r="AP19" s="6"/>
     </row>
-    <row r="20" spans="1:42" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>19</v>
       </c>
@@ -1830,7 +1830,7 @@
       </c>
       <c r="AP20" s="6"/>
     </row>
-    <row r="21" spans="1:42" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>20</v>
       </c>
@@ -1867,7 +1867,7 @@
       </c>
       <c r="AP21" s="6"/>
     </row>
-    <row r="22" spans="1:42" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>21</v>
       </c>
@@ -1904,7 +1904,7 @@
       </c>
       <c r="AP22" s="6"/>
     </row>
-    <row r="23" spans="1:42" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>22</v>
       </c>
@@ -1941,7 +1941,7 @@
       </c>
       <c r="AP23" s="6"/>
     </row>
-    <row r="24" spans="1:42" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>23</v>
       </c>
@@ -1978,7 +1978,7 @@
       </c>
       <c r="AP24" s="6"/>
     </row>
-    <row r="25" spans="1:42" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>24</v>
       </c>
@@ -2011,7 +2011,7 @@
       </c>
       <c r="AP25" s="6"/>
     </row>
-    <row r="26" spans="1:42" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>25</v>
       </c>
@@ -2044,7 +2044,7 @@
       </c>
       <c r="AP26" s="6"/>
     </row>
-    <row r="27" spans="1:42" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>26</v>
       </c>
@@ -2074,7 +2074,7 @@
       </c>
       <c r="AP27" s="6"/>
     </row>
-    <row r="28" spans="1:42" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>27</v>
       </c>
@@ -2104,7 +2104,7 @@
       </c>
       <c r="AP28" s="6"/>
     </row>
-    <row r="29" spans="1:42" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>28</v>
       </c>
@@ -2149,7 +2149,7 @@
       </c>
       <c r="AP29" s="6"/>
     </row>
-    <row r="30" spans="1:42" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>29</v>
       </c>
@@ -2182,7 +2182,7 @@
       </c>
       <c r="AP30" s="6"/>
     </row>
-    <row r="31" spans="1:42" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>30</v>
       </c>
@@ -2219,7 +2219,7 @@
       </c>
       <c r="AP31" s="6"/>
     </row>
-    <row r="32" spans="1:42" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>31</v>
       </c>
@@ -2261,7 +2261,7 @@
       </c>
       <c r="AP32" s="6"/>
     </row>
-    <row r="33" spans="1:42" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A33">
         <v>32</v>
       </c>
@@ -2294,7 +2294,7 @@
       </c>
       <c r="AP33" s="6"/>
     </row>
-    <row r="34" spans="1:42" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A34">
         <v>33</v>
       </c>
@@ -2324,7 +2324,7 @@
       </c>
       <c r="AP34" s="6"/>
     </row>
-    <row r="35" spans="1:42" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A35">
         <v>34</v>
       </c>
@@ -2364,7 +2364,7 @@
       </c>
       <c r="AP35" s="6"/>
     </row>
-    <row r="36" spans="1:42" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A36">
         <v>35</v>
       </c>
@@ -2398,7 +2398,7 @@
       </c>
       <c r="AP36" s="6"/>
     </row>
-    <row r="37" spans="1:42" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A37">
         <v>36</v>
       </c>
@@ -2440,7 +2440,7 @@
       </c>
       <c r="AP37" s="6"/>
     </row>
-    <row r="38" spans="1:42" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A38">
         <v>37</v>
       </c>
@@ -2477,7 +2477,7 @@
       </c>
       <c r="AP38" s="6"/>
     </row>
-    <row r="39" spans="1:42" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A39">
         <v>38</v>
       </c>
@@ -2515,7 +2515,7 @@
       </c>
       <c r="AP39" s="6"/>
     </row>
-    <row r="40" spans="1:42" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A40">
         <v>39</v>
       </c>
@@ -2553,7 +2553,7 @@
       </c>
       <c r="AP40" s="6"/>
     </row>
-    <row r="41" spans="1:42" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A41">
         <v>40</v>
       </c>
@@ -2591,7 +2591,7 @@
       </c>
       <c r="AP41" s="6"/>
     </row>
-    <row r="42" spans="1:42" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A42">
         <v>41</v>
       </c>
@@ -2628,7 +2628,7 @@
       </c>
       <c r="AP42" s="6"/>
     </row>
-    <row r="43" spans="1:42" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A43">
         <v>42</v>
       </c>
@@ -2668,7 +2668,7 @@
       </c>
       <c r="AP43" s="6"/>
     </row>
-    <row r="44" spans="1:42" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A44">
         <v>43</v>
       </c>
@@ -2708,7 +2708,7 @@
       </c>
       <c r="AP44" s="6"/>
     </row>
-    <row r="45" spans="1:42" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A45">
         <v>44</v>
       </c>
@@ -2745,7 +2745,7 @@
       </c>
       <c r="AP45" s="6"/>
     </row>
-    <row r="46" spans="1:42" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A46">
         <v>45</v>
       </c>
@@ -2782,7 +2782,7 @@
       </c>
       <c r="AP46" s="6"/>
     </row>
-    <row r="47" spans="1:42" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A47">
         <v>46</v>
       </c>
@@ -2819,7 +2819,7 @@
       </c>
       <c r="AP47" s="6"/>
     </row>
-    <row r="48" spans="1:42" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A48">
         <v>47</v>
       </c>
@@ -2856,7 +2856,7 @@
       </c>
       <c r="AP48" s="6"/>
     </row>
-    <row r="49" spans="1:44" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A49">
         <v>48</v>
       </c>
@@ -2893,7 +2893,7 @@
       </c>
       <c r="AP49" s="6"/>
     </row>
-    <row r="50" spans="1:44" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A50">
         <v>49</v>
       </c>
@@ -2930,7 +2930,7 @@
       </c>
       <c r="AP50" s="6"/>
     </row>
-    <row r="51" spans="1:44" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A51">
         <v>50</v>
       </c>
@@ -2967,7 +2967,7 @@
       </c>
       <c r="AP51" s="6"/>
     </row>
-    <row r="52" spans="1:44" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A52">
         <v>51</v>
       </c>
@@ -3004,7 +3004,7 @@
       </c>
       <c r="AP52" s="6"/>
     </row>
-    <row r="53" spans="1:44" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A53">
         <v>52</v>
       </c>
@@ -3041,7 +3041,7 @@
       </c>
       <c r="AP53" s="6"/>
     </row>
-    <row r="54" spans="1:44" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A54">
         <v>53</v>
       </c>
@@ -3074,7 +3074,7 @@
       </c>
       <c r="AP54" s="6"/>
     </row>
-    <row r="55" spans="1:44" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A55">
         <v>54</v>
       </c>
@@ -3104,7 +3104,7 @@
       </c>
       <c r="AP55" s="6"/>
     </row>
-    <row r="56" spans="1:44" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A56">
         <v>55</v>
       </c>
@@ -3134,7 +3134,7 @@
       </c>
       <c r="AP56" s="6"/>
     </row>
-    <row r="57" spans="1:44" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A57">
         <v>56</v>
       </c>
@@ -3171,7 +3171,7 @@
       </c>
       <c r="AP57" s="6"/>
     </row>
-    <row r="58" spans="1:44" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A58">
         <v>57</v>
       </c>
@@ -3212,7 +3212,7 @@
       <c r="AQ58" s="1"/>
       <c r="AR58" s="1"/>
     </row>
-    <row r="59" spans="1:44" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A59">
         <v>58</v>
       </c>
@@ -3255,7 +3255,7 @@
       <c r="AQ59" s="1"/>
       <c r="AR59" s="1"/>
     </row>
-    <row r="60" spans="1:44" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A60">
         <v>59</v>
       </c>
@@ -3296,7 +3296,7 @@
       <c r="AO60" s="1"/>
       <c r="AP60" s="6"/>
     </row>
-    <row r="61" spans="1:44" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A61">
         <v>60</v>
       </c>
@@ -3330,7 +3330,7 @@
       </c>
       <c r="AP61" s="6"/>
     </row>
-    <row r="62" spans="1:44" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A62">
         <v>61</v>
       </c>
@@ -3367,7 +3367,7 @@
       </c>
       <c r="AP62" s="6"/>
     </row>
-    <row r="63" spans="1:44" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:44" x14ac:dyDescent="0.2">
       <c r="D63" s="10"/>
       <c r="E63" s="4"/>
     </row>
